--- a/biology/Botanique/Ceriops/Ceriops.xlsx
+++ b/biology/Botanique/Ceriops/Ceriops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceriops est un genre de plantes à fleurs de la famille des Rhizophoraceae. Ce sont des palétuviers possédant des racines échasses. 
 </t>
@@ -511,13 +523,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ceriops australis [1],[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceriops australis ,
 Ceriops decandra (Griff.) Ding Hou (sin.: Ceriops roxburghiana Arn.)
-Ceriops pseudodecandra Sheue, Liu, Tsai, and Yang[3]
+Ceriops pseudodecandra Sheue, Liu, Tsai, and Yang
 Ceriops tagal (Perr.) C.B. Rob.
-Ceriops zippeliana [4]</t>
+Ceriops zippeliana </t>
         </is>
       </c>
     </row>
@@ -545,16 +559,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (7 juin 2013)[5] et ITIS      (7 juin 2013)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 juin 2013) et ITIS      (7 juin 2013) :
 Ceriops tagal (Perr.) C.B. Rob.
-Selon NCBI  (7 juin 2013)[7] :
+Selon NCBI  (7 juin 2013) :
 Ceriops australis
 Ceriops decandra
 Ceriops tagal
 Ceriops zippeliana
-Selon Tropicos                                           (7 juin 2013)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 Ceriops australis (C.T. White) Ballment, T.J.Sm. &amp; J.A. Stoddart
 Ceriops boiviniana Tul.
 Ceriops candolleana Arn.
@@ -569,7 +585,7 @@
 Ceriops tagal (Perr.) C.B. Rob.
 Ceriops timoriensis (DC.) Domin
 Ceriops zippeliana Blume
-Selon World Register of Marine Species                               (7 juin 2013)[9] :
+Selon World Register of Marine Species                               (7 juin 2013) :
 Ceriops australis (C.T.White) Ballment, T.J.Sm. &amp; J.A.Stoddart
 Ceriops decandra (Griff.) Ding Hou
 Ceriops somalensis
